--- a/web-app/spreadsheet/HSL_Bulkload_Schematic.xlsx
+++ b/web-app/spreadsheet/HSL_Bulkload_Schematic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="HSL" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="303">
   <si>
     <t>Consultation Mode</t>
   </si>
@@ -901,6 +901,39 @@
   </si>
   <si>
     <t>Fill in all the relevant cells.  Copy and paste across for bulk input.  Do not leave spaces between columns or delete rows. DO NOT CHANGE THE FORMAT.</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Wharton</t>
+  </si>
+  <si>
+    <t>Vet</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Annenberg</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Coursera</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1153,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1426,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1643,9 +1676,7 @@
       <c r="B36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" ht="15">
       <c r="B37" s="6"/>
@@ -1693,6 +1724,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Mode.User.Goal!$D$3:$D$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>C36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2932,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2945,7 +2988,7 @@
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
         <v>269</v>
       </c>
@@ -2955,8 +2998,11 @@
       <c r="C2" s="23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
         <v>270</v>
       </c>
@@ -2966,8 +3012,11 @@
       <c r="C3" s="22" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>271</v>
       </c>
@@ -2977,8 +3026,11 @@
       <c r="C4" s="22" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="18" t="s">
         <v>272</v>
       </c>
@@ -2988,8 +3040,11 @@
       <c r="C5" s="22" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="18" t="s">
         <v>273</v>
       </c>
@@ -2999,8 +3054,11 @@
       <c r="C6" s="22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="18" t="s">
         <v>274</v>
       </c>
@@ -3008,23 +3066,65 @@
         <v>281</v>
       </c>
       <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="18" t="s">
         <v>275</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="20" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="20" t="s">
         <v>284</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="22" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
